--- a/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="2040" yWindow="900" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Buick Example" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>03101067213</t>
   </si>
   <si>
-    <t>001-001</t>
-  </si>
-  <si>
     <t>25-Feb-2010</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>03101947686</t>
   </si>
   <si>
-    <t>003-008</t>
-  </si>
-  <si>
     <t>16-Aug-2012</t>
   </si>
   <si>
@@ -141,6 +135,9 @@
     <t>03102000418</t>
   </si>
   <si>
+    <t>005-014</t>
+  </si>
+  <si>
     <t>24-Sep-2012</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>03101752020</t>
   </si>
   <si>
-    <t>005-011</t>
-  </si>
-  <si>
     <t>22-Dec-2011</t>
   </si>
   <si>
@@ -226,6 +220,9 @@
   </si>
   <si>
     <t>03101170867</t>
+  </si>
+  <si>
+    <t>006-001</t>
   </si>
   <si>
     <t>05-Feb-2010</t>
@@ -316,8 +313,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -339,11 +342,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,7 +753,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -758,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -773,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -784,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -793,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -801,439 +810,439 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
@@ -237,12 +237,6 @@
     <t>24-Apr-2012</t>
   </si>
   <si>
-    <t>T/N</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Specimen_Number</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -767,7 +767,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -802,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -902,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -922,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -933,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -942,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -953,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -973,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -993,7 +993,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
@@ -1002,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>38</v>
@@ -1022,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
@@ -1042,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1053,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>49</v>
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1113,7 +1113,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>52</v>
@@ -1122,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -1142,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>58</v>
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>61</v>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>64</v>
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1213,7 +1213,7 @@
         <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>67</v>
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1233,7 +1233,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>70</v>
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-upload/gender-mismatches-within-session/good-manifest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="900" windowWidth="25600" windowHeight="16060"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -253,13 +253,19 @@
   </si>
   <si>
     <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -283,8 +289,15 @@
       <color theme="11"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +314,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,7 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +360,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -750,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -765,7 +787,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -784,8 +806,11 @@
       <c r="F1" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -804,8 +829,11 @@
       <c r="F2" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -824,8 +852,11 @@
       <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -844,8 +875,11 @@
       <c r="F4" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -864,8 +898,11 @@
       <c r="F5" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -884,8 +921,11 @@
       <c r="F6" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -904,8 +944,11 @@
       <c r="F7" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -924,8 +967,11 @@
       <c r="F8" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -944,8 +990,11 @@
       <c r="F9" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -964,8 +1013,11 @@
       <c r="F10" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -984,8 +1036,11 @@
       <c r="F11" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1004,8 +1059,11 @@
       <c r="F12" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1024,8 +1082,11 @@
       <c r="F13" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1044,8 +1105,11 @@
       <c r="F14" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -1064,8 +1128,11 @@
       <c r="F15" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1084,8 +1151,11 @@
       <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1104,8 +1174,11 @@
       <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1124,8 +1197,11 @@
       <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1144,8 +1220,11 @@
       <c r="F19" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1164,8 +1243,11 @@
       <c r="F20" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1184,8 +1266,11 @@
       <c r="F21" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1204,8 +1289,11 @@
       <c r="F22" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1224,8 +1312,11 @@
       <c r="F23" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -1243,6 +1334,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
